--- a/public/template/4. Organisasi Perangkat Daerah.xlsx
+++ b/public/template/4. Organisasi Perangkat Daerah.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alwi_mansyur/htdocs/sesendokneo/public/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335F9830-ADC0-F84B-A8D7-96BDE3DC2BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OPD - Organisasi" sheetId="1" r:id="rId4"/>
+    <sheet name="OPD - Organisasi" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>KODE</t>
   </si>
@@ -109,9 +118,6 @@
     <t>1.03.0.00.0.00.01.0000</t>
   </si>
   <si>
-    <t>DINAS PEKERJAAN UMUM DAN PENATAAN RUANG</t>
-  </si>
-  <si>
     <t>2.06.1.00.0.00.01.0000</t>
   </si>
   <si>
@@ -212,33 +218,23 @@
   </si>
   <si>
     <t>BLU Rumah Sakit Umum Daerah</t>
+  </si>
+  <si>
+    <t>Dinas Pekerjaan Umum dan Penataan Ruang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Avenir Next Regular"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Avenir Next Regular"/>
     </font>
@@ -416,48 +412,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,28 +464,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="fffefffe"/>
-      <rgbColor rgb="ff227aae"/>
-      <rgbColor rgb="ffb3afaa"/>
-      <rgbColor rgb="ffcccac6"/>
-      <rgbColor rgb="ffe4e2de"/>
-      <rgbColor rgb="fff0ebe2"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFEFFFE"/>
+      <rgbColor rgb="FF227AAE"/>
+      <rgbColor rgb="FFB3AFAA"/>
+      <rgbColor rgb="FFCCCAC6"/>
+      <rgbColor rgb="FFE4E2DE"/>
+      <rgbColor rgb="FFF0EBE2"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -688,7 +741,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -706,7 +759,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -735,7 +788,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,7 +813,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -785,7 +838,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -810,7 +863,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -835,7 +888,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -860,7 +913,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,7 +938,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -910,7 +963,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -935,7 +988,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -948,9 +1001,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -967,7 +1026,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -985,7 +1044,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1010,7 +1069,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1035,7 +1094,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1060,7 +1119,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1144,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,7 +1169,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1194,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1219,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1185,7 +1244,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1210,7 +1269,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1223,9 +1282,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1239,7 +1304,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1257,7 +1322,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1286,7 +1351,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,7 +1376,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,7 +1401,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1361,7 +1426,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1386,7 +1451,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1411,7 +1476,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1436,7 +1501,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1461,7 +1526,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1486,7 +1551,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1499,334 +1564,345 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="21.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.0391" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8984" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" t="s" s="5">
+    <row r="5" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" ht="22.5" customHeight="1">
-      <c r="A6" t="s" s="5">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" t="s" s="5">
+    <row r="7" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" t="s" s="5">
+    <row r="8" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" t="s" s="5">
+    <row r="9" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" t="s" s="5">
+    <row r="10" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" ht="22.5" customHeight="1">
-      <c r="A11" t="s" s="5">
+    <row r="11" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s" s="8">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" ht="22.5" customHeight="1">
-      <c r="A12" t="s" s="5">
+    <row r="12" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" t="s" s="5">
+    <row r="13" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s" s="8">
+      <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" t="s" s="5">
+    <row r="14" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s" s="6">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" t="s" s="5">
+    <row r="15" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s" s="8">
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" t="s" s="5">
+    <row r="16" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s" s="6">
+      <c r="B16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" t="s" s="5">
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s" s="8">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" t="s" s="5">
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s" s="6">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" t="s" s="5">
+      <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s" s="8">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1">
-      <c r="A20" t="s" s="5">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s" s="6">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1">
-      <c r="A21" t="s" s="5">
+      <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s" s="8">
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1">
-      <c r="A22" t="s" s="5">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s" s="6">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" ht="22.5" customHeight="1">
-      <c r="A23" t="s" s="5">
+      <c r="B23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s" s="8">
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" t="s" s="5">
+      <c r="B24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s" s="6">
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" ht="22.5" customHeight="1">
-      <c r="A25" t="s" s="5">
+      <c r="B25" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="s" s="8">
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" ht="22.5" customHeight="1">
-      <c r="A26" t="s" s="5">
+      <c r="B26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B26" t="s" s="6">
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" ht="22.5" customHeight="1">
-      <c r="A27" t="s" s="5">
+      <c r="B27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B27" t="s" s="8">
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" ht="22.5" customHeight="1">
-      <c r="A28" t="s" s="5">
+      <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="s" s="6">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" ht="22.5" customHeight="1">
-      <c r="A29" t="s" s="5">
+      <c r="B29" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B29" t="s" s="8">
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" ht="22.5" customHeight="1">
-      <c r="A30" t="s" s="5">
+      <c r="B30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B30" t="s" s="6">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" ht="22.5" customHeight="1">
-      <c r="A31" t="s" s="5">
+      <c r="B31" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B31" t="s" s="8">
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" ht="22.5" customHeight="1">
-      <c r="A32" t="s" s="5">
+      <c r="B32" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B32" t="s" s="6">
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A33" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" ht="22.6" customHeight="1">
-      <c r="A33" t="s" s="10">
+      <c r="B33" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B33" t="s" s="11">
-        <v>66</v>
-      </c>
       <c r="C33" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
